--- a/Lectures/HW4_mc_plots.xlsx
+++ b/Lectures/HW4_mc_plots.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Classes\CEE6410\Fall2020\CEE6410-Rosenberg-GitHub\CEE-6410-Rosenberg\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD7CF5-4B56-4FBA-A133-392FEF038E63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FF1B42-5CDD-4BCD-882D-1712E2F70767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitStorS" sheetId="3" r:id="rId1"/>
     <sheet name="InitStorage-Histogram" sheetId="4" r:id="rId2"/>
-    <sheet name="Inflow-Plot" sheetId="6" r:id="rId3"/>
-    <sheet name="InflowS" sheetId="5" r:id="rId4"/>
+    <sheet name="InflowS" sheetId="5" r:id="rId3"/>
+    <sheet name="Inflow-TimeSeriesPlot" sheetId="6" r:id="rId4"/>
     <sheet name="NetBenefit-Results" sheetId="1" r:id="rId5"/>
     <sheet name="NB-Histograms" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">InflowS!$A$3:$C$1503</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InflowS!$A$3:$C$1503</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InitStorS!$A$3:$B$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="284">
   <si>
     <t>s1</t>
   </si>
@@ -878,6 +878,18 @@
   <si>
     <t>Sum of Value</t>
   </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Actual Prob</t>
+  </si>
+  <si>
+    <t>Flow val</t>
+  </si>
 </sst>
 </file>
 
@@ -1278,7 +1290,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="50800" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1416,7 +1428,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1429,7 +1441,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2800"/>
                   <a:t>Initial Storage (volume)</a:t>
                 </a:r>
               </a:p>
@@ -1466,7 +1478,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1502,7 +1514,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1515,13 +1527,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2800"/>
                   <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1534,8 +1546,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>(number of times)</a:t>
+                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:t>(number of scenarios)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1565,7 +1577,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1616,7 +1628,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1629,7 +1641,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2800"/>
                   <a:t>Cumulative Fraction</a:t>
                 </a:r>
               </a:p>
@@ -1660,7 +1672,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1695,10 +1707,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65899550689542574"/>
+          <c:x val="0.70494252885950182"/>
           <c:y val="9.5292168441518721E-2"/>
-          <c:w val="0.19806153947737659"/>
-          <c:h val="0.11222258814929317"/>
+          <c:w val="0.15211451090682332"/>
+          <c:h val="0.1621101950947467"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1716,7 +1728,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6344,6 +6356,9 @@
       <c:pivotFmt>
         <c:idx val="252"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6359,6 +6374,9 @@
       <c:pivotFmt>
         <c:idx val="253"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6374,6 +6392,9 @@
       <c:pivotFmt>
         <c:idx val="254"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6389,6 +6410,9 @@
       <c:pivotFmt>
         <c:idx val="255"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6404,6 +6428,9 @@
       <c:pivotFmt>
         <c:idx val="256"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6419,6 +6446,9 @@
       <c:pivotFmt>
         <c:idx val="257"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6434,6 +6464,9 @@
       <c:pivotFmt>
         <c:idx val="258"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6449,6 +6482,9 @@
       <c:pivotFmt>
         <c:idx val="259"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6464,6 +6500,9 @@
       <c:pivotFmt>
         <c:idx val="260"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6479,6 +6518,9 @@
       <c:pivotFmt>
         <c:idx val="261"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6494,6 +6536,9 @@
       <c:pivotFmt>
         <c:idx val="262"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6509,6 +6554,9 @@
       <c:pivotFmt>
         <c:idx val="263"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6524,6 +6572,9 @@
       <c:pivotFmt>
         <c:idx val="264"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6539,6 +6590,9 @@
       <c:pivotFmt>
         <c:idx val="265"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6554,6 +6608,9 @@
       <c:pivotFmt>
         <c:idx val="266"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6569,6 +6626,9 @@
       <c:pivotFmt>
         <c:idx val="267"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6584,6 +6644,9 @@
       <c:pivotFmt>
         <c:idx val="268"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6599,6 +6662,9 @@
       <c:pivotFmt>
         <c:idx val="269"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6614,6 +6680,9 @@
       <c:pivotFmt>
         <c:idx val="270"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6629,6 +6698,9 @@
       <c:pivotFmt>
         <c:idx val="271"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6644,6 +6716,9 @@
       <c:pivotFmt>
         <c:idx val="272"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6659,6 +6734,9 @@
       <c:pivotFmt>
         <c:idx val="273"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6674,6 +6752,9 @@
       <c:pivotFmt>
         <c:idx val="274"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6689,6 +6770,9 @@
       <c:pivotFmt>
         <c:idx val="275"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6704,6 +6788,9 @@
       <c:pivotFmt>
         <c:idx val="276"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6719,6 +6806,9 @@
       <c:pivotFmt>
         <c:idx val="277"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6734,6 +6824,9 @@
       <c:pivotFmt>
         <c:idx val="278"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6749,6 +6842,9 @@
       <c:pivotFmt>
         <c:idx val="279"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6764,6 +6860,9 @@
       <c:pivotFmt>
         <c:idx val="280"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6779,6 +6878,9 @@
       <c:pivotFmt>
         <c:idx val="281"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6794,6 +6896,9 @@
       <c:pivotFmt>
         <c:idx val="282"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6809,6 +6914,9 @@
       <c:pivotFmt>
         <c:idx val="283"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6824,6 +6932,9 @@
       <c:pivotFmt>
         <c:idx val="284"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6839,6 +6950,9 @@
       <c:pivotFmt>
         <c:idx val="285"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6854,6 +6968,9 @@
       <c:pivotFmt>
         <c:idx val="286"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6869,6 +6986,9 @@
       <c:pivotFmt>
         <c:idx val="287"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6884,6 +7004,9 @@
       <c:pivotFmt>
         <c:idx val="288"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6899,6 +7022,9 @@
       <c:pivotFmt>
         <c:idx val="289"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6914,6 +7040,9 @@
       <c:pivotFmt>
         <c:idx val="290"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6929,6 +7058,9 @@
       <c:pivotFmt>
         <c:idx val="291"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6944,6 +7076,9 @@
       <c:pivotFmt>
         <c:idx val="292"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6959,6 +7094,9 @@
       <c:pivotFmt>
         <c:idx val="293"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6974,6 +7112,9 @@
       <c:pivotFmt>
         <c:idx val="294"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6989,6 +7130,9 @@
       <c:pivotFmt>
         <c:idx val="295"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7004,6 +7148,9 @@
       <c:pivotFmt>
         <c:idx val="296"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7019,6 +7166,9 @@
       <c:pivotFmt>
         <c:idx val="297"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7034,6 +7184,9 @@
       <c:pivotFmt>
         <c:idx val="298"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7049,6 +7202,9 @@
       <c:pivotFmt>
         <c:idx val="299"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7064,6 +7220,9 @@
       <c:pivotFmt>
         <c:idx val="300"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7079,6 +7238,9 @@
       <c:pivotFmt>
         <c:idx val="301"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7094,6 +7256,9 @@
       <c:pivotFmt>
         <c:idx val="302"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7109,6 +7274,9 @@
       <c:pivotFmt>
         <c:idx val="303"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7124,6 +7292,9 @@
       <c:pivotFmt>
         <c:idx val="304"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7139,6 +7310,9 @@
       <c:pivotFmt>
         <c:idx val="305"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7154,6 +7328,9 @@
       <c:pivotFmt>
         <c:idx val="306"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7169,6 +7346,9 @@
       <c:pivotFmt>
         <c:idx val="307"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7184,6 +7364,9 @@
       <c:pivotFmt>
         <c:idx val="308"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7199,6 +7382,9 @@
       <c:pivotFmt>
         <c:idx val="309"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7214,6 +7400,9 @@
       <c:pivotFmt>
         <c:idx val="310"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7229,6 +7418,9 @@
       <c:pivotFmt>
         <c:idx val="311"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7244,6 +7436,9 @@
       <c:pivotFmt>
         <c:idx val="312"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7259,6 +7454,9 @@
       <c:pivotFmt>
         <c:idx val="313"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7274,6 +7472,9 @@
       <c:pivotFmt>
         <c:idx val="314"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7289,6 +7490,9 @@
       <c:pivotFmt>
         <c:idx val="315"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7304,6 +7508,9 @@
       <c:pivotFmt>
         <c:idx val="316"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7319,6 +7526,9 @@
       <c:pivotFmt>
         <c:idx val="317"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7334,6 +7544,9 @@
       <c:pivotFmt>
         <c:idx val="318"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7349,6 +7562,9 @@
       <c:pivotFmt>
         <c:idx val="319"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7364,6 +7580,9 @@
       <c:pivotFmt>
         <c:idx val="320"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7379,6 +7598,9 @@
       <c:pivotFmt>
         <c:idx val="321"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7394,6 +7616,9 @@
       <c:pivotFmt>
         <c:idx val="322"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7409,6 +7634,9 @@
       <c:pivotFmt>
         <c:idx val="323"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7424,6 +7652,9 @@
       <c:pivotFmt>
         <c:idx val="324"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7439,6 +7670,9 @@
       <c:pivotFmt>
         <c:idx val="325"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7454,6 +7688,9 @@
       <c:pivotFmt>
         <c:idx val="326"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7469,6 +7706,9 @@
       <c:pivotFmt>
         <c:idx val="327"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7484,6 +7724,9 @@
       <c:pivotFmt>
         <c:idx val="328"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7499,6 +7742,9 @@
       <c:pivotFmt>
         <c:idx val="329"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7514,6 +7760,9 @@
       <c:pivotFmt>
         <c:idx val="330"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7529,6 +7778,9 @@
       <c:pivotFmt>
         <c:idx val="331"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7544,6 +7796,9 @@
       <c:pivotFmt>
         <c:idx val="332"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7559,6 +7814,9 @@
       <c:pivotFmt>
         <c:idx val="333"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7574,6 +7832,9 @@
       <c:pivotFmt>
         <c:idx val="334"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7589,6 +7850,9 @@
       <c:pivotFmt>
         <c:idx val="335"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7604,6 +7868,9 @@
       <c:pivotFmt>
         <c:idx val="336"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7619,6 +7886,9 @@
       <c:pivotFmt>
         <c:idx val="337"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7634,6 +7904,9 @@
       <c:pivotFmt>
         <c:idx val="338"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7649,6 +7922,9 @@
       <c:pivotFmt>
         <c:idx val="339"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7664,6 +7940,9 @@
       <c:pivotFmt>
         <c:idx val="340"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7679,6 +7958,9 @@
       <c:pivotFmt>
         <c:idx val="341"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7694,6 +7976,9 @@
       <c:pivotFmt>
         <c:idx val="342"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7709,6 +7994,9 @@
       <c:pivotFmt>
         <c:idx val="343"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7724,6 +8012,9 @@
       <c:pivotFmt>
         <c:idx val="344"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7739,6 +8030,9 @@
       <c:pivotFmt>
         <c:idx val="345"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7754,6 +8048,9 @@
       <c:pivotFmt>
         <c:idx val="346"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7769,6 +8066,9 @@
       <c:pivotFmt>
         <c:idx val="347"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7784,6 +8084,9 @@
       <c:pivotFmt>
         <c:idx val="348"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7799,6 +8102,9 @@
       <c:pivotFmt>
         <c:idx val="349"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7814,6 +8120,9 @@
       <c:pivotFmt>
         <c:idx val="350"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7829,6 +8138,9 @@
       <c:pivotFmt>
         <c:idx val="351"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7844,6 +8156,9 @@
       <c:pivotFmt>
         <c:idx val="352"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7859,6 +8174,9 @@
       <c:pivotFmt>
         <c:idx val="353"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7874,6 +8192,9 @@
       <c:pivotFmt>
         <c:idx val="354"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7889,6 +8210,9 @@
       <c:pivotFmt>
         <c:idx val="355"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7904,6 +8228,9 @@
       <c:pivotFmt>
         <c:idx val="356"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7919,6 +8246,9 @@
       <c:pivotFmt>
         <c:idx val="357"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7934,6 +8264,9 @@
       <c:pivotFmt>
         <c:idx val="358"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7949,6 +8282,9 @@
       <c:pivotFmt>
         <c:idx val="359"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7964,6 +8300,9 @@
       <c:pivotFmt>
         <c:idx val="360"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7979,6 +8318,9 @@
       <c:pivotFmt>
         <c:idx val="361"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7994,6 +8336,9 @@
       <c:pivotFmt>
         <c:idx val="362"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8009,6 +8354,9 @@
       <c:pivotFmt>
         <c:idx val="363"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8024,6 +8372,9 @@
       <c:pivotFmt>
         <c:idx val="364"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8039,6 +8390,9 @@
       <c:pivotFmt>
         <c:idx val="365"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8054,6 +8408,9 @@
       <c:pivotFmt>
         <c:idx val="366"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8069,6 +8426,9 @@
       <c:pivotFmt>
         <c:idx val="367"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8084,6 +8444,9 @@
       <c:pivotFmt>
         <c:idx val="368"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8099,6 +8462,9 @@
       <c:pivotFmt>
         <c:idx val="369"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8114,6 +8480,9 @@
       <c:pivotFmt>
         <c:idx val="370"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8129,6 +8498,9 @@
       <c:pivotFmt>
         <c:idx val="371"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8144,6 +8516,9 @@
       <c:pivotFmt>
         <c:idx val="372"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8159,6 +8534,9 @@
       <c:pivotFmt>
         <c:idx val="373"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8174,6 +8552,9 @@
       <c:pivotFmt>
         <c:idx val="374"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8189,6 +8570,9 @@
       <c:pivotFmt>
         <c:idx val="375"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8204,6 +8588,9 @@
       <c:pivotFmt>
         <c:idx val="376"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8219,6 +8606,9 @@
       <c:pivotFmt>
         <c:idx val="377"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8234,6 +8624,9 @@
       <c:pivotFmt>
         <c:idx val="378"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8249,6 +8642,9 @@
       <c:pivotFmt>
         <c:idx val="379"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8264,6 +8660,9 @@
       <c:pivotFmt>
         <c:idx val="380"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8279,6 +8678,9 @@
       <c:pivotFmt>
         <c:idx val="381"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8294,6 +8696,9 @@
       <c:pivotFmt>
         <c:idx val="382"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8309,6 +8714,9 @@
       <c:pivotFmt>
         <c:idx val="383"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8324,6 +8732,9 @@
       <c:pivotFmt>
         <c:idx val="384"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8339,6 +8750,9 @@
       <c:pivotFmt>
         <c:idx val="385"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8354,6 +8768,9 @@
       <c:pivotFmt>
         <c:idx val="386"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8369,6 +8786,9 @@
       <c:pivotFmt>
         <c:idx val="387"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8384,6 +8804,9 @@
       <c:pivotFmt>
         <c:idx val="388"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8399,6 +8822,9 @@
       <c:pivotFmt>
         <c:idx val="389"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8414,6 +8840,9 @@
       <c:pivotFmt>
         <c:idx val="390"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8429,6 +8858,9 @@
       <c:pivotFmt>
         <c:idx val="391"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8444,6 +8876,9 @@
       <c:pivotFmt>
         <c:idx val="392"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8459,6 +8894,9 @@
       <c:pivotFmt>
         <c:idx val="393"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8474,6 +8912,9 @@
       <c:pivotFmt>
         <c:idx val="394"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8489,6 +8930,9 @@
       <c:pivotFmt>
         <c:idx val="395"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8504,6 +8948,9 @@
       <c:pivotFmt>
         <c:idx val="396"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8519,6 +8966,9 @@
       <c:pivotFmt>
         <c:idx val="397"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8534,6 +8984,9 @@
       <c:pivotFmt>
         <c:idx val="398"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8549,6 +9002,9 @@
       <c:pivotFmt>
         <c:idx val="399"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8564,6 +9020,9 @@
       <c:pivotFmt>
         <c:idx val="400"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8579,6 +9038,9 @@
       <c:pivotFmt>
         <c:idx val="401"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8594,6 +9056,9 @@
       <c:pivotFmt>
         <c:idx val="402"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8609,6 +9074,9 @@
       <c:pivotFmt>
         <c:idx val="403"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8624,6 +9092,9 @@
       <c:pivotFmt>
         <c:idx val="404"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8639,6 +9110,9 @@
       <c:pivotFmt>
         <c:idx val="405"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8654,6 +9128,9 @@
       <c:pivotFmt>
         <c:idx val="406"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8669,6 +9146,9 @@
       <c:pivotFmt>
         <c:idx val="407"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8684,6 +9164,9 @@
       <c:pivotFmt>
         <c:idx val="408"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8699,6 +9182,9 @@
       <c:pivotFmt>
         <c:idx val="409"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8714,6 +9200,9 @@
       <c:pivotFmt>
         <c:idx val="410"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8729,6 +9218,9 @@
       <c:pivotFmt>
         <c:idx val="411"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8744,6 +9236,9 @@
       <c:pivotFmt>
         <c:idx val="412"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8759,6 +9254,9 @@
       <c:pivotFmt>
         <c:idx val="413"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8774,6 +9272,9 @@
       <c:pivotFmt>
         <c:idx val="414"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8789,6 +9290,9 @@
       <c:pivotFmt>
         <c:idx val="415"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8804,6 +9308,9 @@
       <c:pivotFmt>
         <c:idx val="416"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8819,6 +9326,9 @@
       <c:pivotFmt>
         <c:idx val="417"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8834,6 +9344,9 @@
       <c:pivotFmt>
         <c:idx val="418"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8849,6 +9362,9 @@
       <c:pivotFmt>
         <c:idx val="419"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8864,6 +9380,9 @@
       <c:pivotFmt>
         <c:idx val="420"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8879,6 +9398,9 @@
       <c:pivotFmt>
         <c:idx val="421"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8894,6 +9416,9 @@
       <c:pivotFmt>
         <c:idx val="422"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8909,6 +9434,9 @@
       <c:pivotFmt>
         <c:idx val="423"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8924,6 +9452,9 @@
       <c:pivotFmt>
         <c:idx val="424"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8939,6 +9470,9 @@
       <c:pivotFmt>
         <c:idx val="425"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8954,6 +9488,9 @@
       <c:pivotFmt>
         <c:idx val="426"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8969,6 +9506,9 @@
       <c:pivotFmt>
         <c:idx val="427"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8984,6 +9524,9 @@
       <c:pivotFmt>
         <c:idx val="428"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8999,6 +9542,9 @@
       <c:pivotFmt>
         <c:idx val="429"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9014,6 +9560,9 @@
       <c:pivotFmt>
         <c:idx val="430"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9029,6 +9578,9 @@
       <c:pivotFmt>
         <c:idx val="431"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9044,6 +9596,9 @@
       <c:pivotFmt>
         <c:idx val="432"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9059,6 +9614,9 @@
       <c:pivotFmt>
         <c:idx val="433"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9074,6 +9632,9 @@
       <c:pivotFmt>
         <c:idx val="434"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9089,6 +9650,9 @@
       <c:pivotFmt>
         <c:idx val="435"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9104,6 +9668,9 @@
       <c:pivotFmt>
         <c:idx val="436"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9119,6 +9686,9 @@
       <c:pivotFmt>
         <c:idx val="437"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9134,6 +9704,9 @@
       <c:pivotFmt>
         <c:idx val="438"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9149,6 +9722,9 @@
       <c:pivotFmt>
         <c:idx val="439"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9164,6 +9740,9 @@
       <c:pivotFmt>
         <c:idx val="440"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9179,6 +9758,9 @@
       <c:pivotFmt>
         <c:idx val="441"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9194,6 +9776,9 @@
       <c:pivotFmt>
         <c:idx val="442"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9209,6 +9794,9 @@
       <c:pivotFmt>
         <c:idx val="443"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9224,6 +9812,9 @@
       <c:pivotFmt>
         <c:idx val="444"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9239,6 +9830,9 @@
       <c:pivotFmt>
         <c:idx val="445"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9254,6 +9848,9 @@
       <c:pivotFmt>
         <c:idx val="446"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9269,6 +9866,9 @@
       <c:pivotFmt>
         <c:idx val="447"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9284,6 +9884,9 @@
       <c:pivotFmt>
         <c:idx val="448"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9299,6 +9902,9 @@
       <c:pivotFmt>
         <c:idx val="449"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9314,6 +9920,9 @@
       <c:pivotFmt>
         <c:idx val="450"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9329,6 +9938,9 @@
       <c:pivotFmt>
         <c:idx val="451"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9344,6 +9956,9 @@
       <c:pivotFmt>
         <c:idx val="452"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9359,6 +9974,9 @@
       <c:pivotFmt>
         <c:idx val="453"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9374,6 +9992,9 @@
       <c:pivotFmt>
         <c:idx val="454"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9389,6 +10010,9 @@
       <c:pivotFmt>
         <c:idx val="455"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9404,6 +10028,9 @@
       <c:pivotFmt>
         <c:idx val="456"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9419,6 +10046,9 @@
       <c:pivotFmt>
         <c:idx val="457"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9434,6 +10064,9 @@
       <c:pivotFmt>
         <c:idx val="458"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9449,6 +10082,9 @@
       <c:pivotFmt>
         <c:idx val="459"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9464,6 +10100,9 @@
       <c:pivotFmt>
         <c:idx val="460"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9479,6 +10118,9 @@
       <c:pivotFmt>
         <c:idx val="461"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9494,6 +10136,9 @@
       <c:pivotFmt>
         <c:idx val="462"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9509,6 +10154,9 @@
       <c:pivotFmt>
         <c:idx val="463"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9524,6 +10172,9 @@
       <c:pivotFmt>
         <c:idx val="464"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9539,6 +10190,9 @@
       <c:pivotFmt>
         <c:idx val="465"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9554,6 +10208,9 @@
       <c:pivotFmt>
         <c:idx val="466"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9569,6 +10226,9 @@
       <c:pivotFmt>
         <c:idx val="467"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9584,6 +10244,9 @@
       <c:pivotFmt>
         <c:idx val="468"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9599,6 +10262,9 @@
       <c:pivotFmt>
         <c:idx val="469"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9614,6 +10280,9 @@
       <c:pivotFmt>
         <c:idx val="470"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9629,6 +10298,9 @@
       <c:pivotFmt>
         <c:idx val="471"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9644,6 +10316,9 @@
       <c:pivotFmt>
         <c:idx val="472"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9659,6 +10334,9 @@
       <c:pivotFmt>
         <c:idx val="473"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9674,6 +10352,9 @@
       <c:pivotFmt>
         <c:idx val="474"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9689,6 +10370,9 @@
       <c:pivotFmt>
         <c:idx val="475"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9704,6 +10388,9 @@
       <c:pivotFmt>
         <c:idx val="476"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9719,6 +10406,9 @@
       <c:pivotFmt>
         <c:idx val="477"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9734,6 +10424,9 @@
       <c:pivotFmt>
         <c:idx val="478"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9749,6 +10442,9 @@
       <c:pivotFmt>
         <c:idx val="479"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9764,6 +10460,9 @@
       <c:pivotFmt>
         <c:idx val="480"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9779,6 +10478,9 @@
       <c:pivotFmt>
         <c:idx val="481"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9794,6 +10496,9 @@
       <c:pivotFmt>
         <c:idx val="482"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9809,6 +10514,9 @@
       <c:pivotFmt>
         <c:idx val="483"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9824,6 +10532,9 @@
       <c:pivotFmt>
         <c:idx val="484"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9839,6 +10550,9 @@
       <c:pivotFmt>
         <c:idx val="485"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9854,6 +10568,9 @@
       <c:pivotFmt>
         <c:idx val="486"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9869,6 +10586,9 @@
       <c:pivotFmt>
         <c:idx val="487"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9884,6 +10604,9 @@
       <c:pivotFmt>
         <c:idx val="488"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9899,6 +10622,9 @@
       <c:pivotFmt>
         <c:idx val="489"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9914,6 +10640,9 @@
       <c:pivotFmt>
         <c:idx val="490"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9929,6 +10658,9 @@
       <c:pivotFmt>
         <c:idx val="491"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9944,6 +10676,9 @@
       <c:pivotFmt>
         <c:idx val="492"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9959,6 +10694,9 @@
       <c:pivotFmt>
         <c:idx val="493"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9974,6 +10712,9 @@
       <c:pivotFmt>
         <c:idx val="494"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9989,6 +10730,9 @@
       <c:pivotFmt>
         <c:idx val="495"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -10004,6 +10748,9 @@
       <c:pivotFmt>
         <c:idx val="496"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -10019,6 +10766,9 @@
       <c:pivotFmt>
         <c:idx val="497"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -10034,6 +10784,9 @@
       <c:pivotFmt>
         <c:idx val="498"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -10049,6 +10802,9 @@
       <c:pivotFmt>
         <c:idx val="499"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -12047,7 +12803,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9E6FB583-AC09-486B-99A9-4E8A1CA6AF38}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12102,7 +12858,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12997656" cy="9425781"/>
+    <xdr:ext cx="12991042" cy="9419167"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -19952,7 +20708,1058 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAD5543F-C7DB-43B8-A159-FD35650122F5}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE55083C-CDAE-46DE-9ED7-37C930A6E699}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G13:H264" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="251">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="10"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="11"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="12"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="13"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="14"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="15"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="16"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="17"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="18"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="20"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="21"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="22"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="23"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="24"/>
+        <item x="249"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="4"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="5"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="7"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="8"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="251">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="194"/>
+    </i>
+    <i>
+      <x v="195"/>
+    </i>
+    <i>
+      <x v="196"/>
+    </i>
+    <i>
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="198"/>
+    </i>
+    <i>
+      <x v="199"/>
+    </i>
+    <i>
+      <x v="200"/>
+    </i>
+    <i>
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="202"/>
+    </i>
+    <i>
+      <x v="203"/>
+    </i>
+    <i>
+      <x v="204"/>
+    </i>
+    <i>
+      <x v="205"/>
+    </i>
+    <i>
+      <x v="206"/>
+    </i>
+    <i>
+      <x v="207"/>
+    </i>
+    <i>
+      <x v="208"/>
+    </i>
+    <i>
+      <x v="209"/>
+    </i>
+    <i>
+      <x v="210"/>
+    </i>
+    <i>
+      <x v="211"/>
+    </i>
+    <i>
+      <x v="212"/>
+    </i>
+    <i>
+      <x v="213"/>
+    </i>
+    <i>
+      <x v="214"/>
+    </i>
+    <i>
+      <x v="215"/>
+    </i>
+    <i>
+      <x v="216"/>
+    </i>
+    <i>
+      <x v="217"/>
+    </i>
+    <i>
+      <x v="218"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="220"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="222"/>
+    </i>
+    <i>
+      <x v="223"/>
+    </i>
+    <i>
+      <x v="224"/>
+    </i>
+    <i>
+      <x v="225"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i>
+      <x v="227"/>
+    </i>
+    <i>
+      <x v="228"/>
+    </i>
+    <i>
+      <x v="229"/>
+    </i>
+    <i>
+      <x v="230"/>
+    </i>
+    <i>
+      <x v="231"/>
+    </i>
+    <i>
+      <x v="232"/>
+    </i>
+    <i>
+      <x v="233"/>
+    </i>
+    <i>
+      <x v="234"/>
+    </i>
+    <i>
+      <x v="235"/>
+    </i>
+    <i>
+      <x v="236"/>
+    </i>
+    <i>
+      <x v="237"/>
+    </i>
+    <i>
+      <x v="238"/>
+    </i>
+    <i>
+      <x v="239"/>
+    </i>
+    <i>
+      <x v="240"/>
+    </i>
+    <i>
+      <x v="241"/>
+    </i>
+    <i>
+      <x v="242"/>
+    </i>
+    <i>
+      <x v="243"/>
+    </i>
+    <i>
+      <x v="244"/>
+    </i>
+    <i>
+      <x v="245"/>
+    </i>
+    <i>
+      <x v="246"/>
+    </i>
+    <i>
+      <x v="247"/>
+    </i>
+    <i>
+      <x v="248"/>
+    </i>
+    <i>
+      <x v="249"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAD5543F-C7DB-43B8-A159-FD35650122F5}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="G2:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -23545,7 +25352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -26076,10 +27883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71BADC4-78C3-4568-B50F-17E06C201A3F}">
-  <dimension ref="A1:H1503"/>
+  <dimension ref="A1:P1503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26088,8 +27895,14 @@
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="13" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" customWidth="1"/>
+    <col min="17" max="19" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="21" max="30" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="32" max="41" width="4.6328125" bestFit="1" customWidth="1"/>
@@ -26107,7 +27920,7 @@
     <col min="98" max="107" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="109" max="118" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="121" max="130" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="3.6328125" bestFit="1" customWidth="1"/>
@@ -26121,19 +27934,19 @@
     <col min="175" max="175" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="177" max="180" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="182" max="191" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="193" max="202" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="204" max="213" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="215" max="224" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="226" max="235" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="237" max="246" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="248" max="257" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="15.7265625" customWidth="1"/>
@@ -26201,12 +28014,12 @@
     <col min="16129" max="16131" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>268</v>
       </c>
@@ -26223,7 +28036,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>264</v>
       </c>
@@ -26240,7 +28053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -26257,7 +28070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -26274,7 +28087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -26291,7 +28104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -26308,7 +28121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -26325,7 +28138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -26342,7 +28155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -26353,7 +28166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -26363,8 +28176,14 @@
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -26375,7 +28194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -26385,8 +28204,29 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" t="s">
+        <v>283</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O13" t="s">
+        <v>281</v>
+      </c>
+      <c r="P13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -26396,8 +28236,30 @@
       <c r="C14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <f>N14/$O$18</f>
+        <v>0.1</v>
+      </c>
+      <c r="P14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -26407,8 +28269,30 @@
       <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="14">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>83</v>
+      </c>
+      <c r="O15">
+        <f>N15/$O$18</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="P15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -26418,8 +28302,30 @@
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>92</v>
+      </c>
+      <c r="O16">
+        <f>N16/$O$18</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -26429,8 +28335,30 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="14">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="M17" s="2">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <f>N17/$O$18</f>
+        <v>0.2</v>
+      </c>
+      <c r="P17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -26440,8 +28368,24 @@
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="14">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>SUM(N14:N17)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -26451,8 +28395,14 @@
       <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -26462,8 +28412,14 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -26473,8 +28429,14 @@
       <c r="C21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -26484,8 +28446,14 @@
       <c r="C22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -26495,8 +28463,14 @@
       <c r="C23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -26506,8 +28480,14 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -26517,8 +28497,14 @@
       <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -26528,8 +28514,14 @@
       <c r="C26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -26539,8 +28531,14 @@
       <c r="C27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -26550,8 +28548,14 @@
       <c r="C28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -26561,8 +28565,14 @@
       <c r="C29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -26572,8 +28582,14 @@
       <c r="C30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G30" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -26583,8 +28599,14 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G31" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -26594,8 +28616,14 @@
       <c r="C32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -26605,8 +28633,14 @@
       <c r="C33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -26616,8 +28650,14 @@
       <c r="C34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -26627,8 +28667,14 @@
       <c r="C35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G35" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -26638,8 +28684,14 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -26649,8 +28701,14 @@
       <c r="C37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -26660,8 +28718,14 @@
       <c r="C38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G38" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -26671,8 +28735,14 @@
       <c r="C39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G39" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -26682,8 +28752,14 @@
       <c r="C40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G40" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -26693,8 +28769,14 @@
       <c r="C41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G41" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -26704,8 +28786,14 @@
       <c r="C42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G42" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -26715,8 +28803,14 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G43" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -26726,8 +28820,14 @@
       <c r="C44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G44" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -26737,8 +28837,14 @@
       <c r="C45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G45" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -26748,8 +28854,14 @@
       <c r="C46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G46" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -26759,8 +28871,14 @@
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -26770,8 +28888,14 @@
       <c r="C48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -26781,8 +28905,14 @@
       <c r="C49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G49" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -26792,8 +28922,14 @@
       <c r="C50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -26803,8 +28939,14 @@
       <c r="C51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G51" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -26814,8 +28956,14 @@
       <c r="C52">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G52" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -26825,8 +28973,14 @@
       <c r="C53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G53" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -26836,8 +28990,14 @@
       <c r="C54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G54" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -26847,8 +29007,14 @@
       <c r="C55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G55" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -26858,8 +29024,14 @@
       <c r="C56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G56" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -26869,8 +29041,14 @@
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G57" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -26880,8 +29058,14 @@
       <c r="C58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G58" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -26891,8 +29075,14 @@
       <c r="C59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -26902,8 +29092,14 @@
       <c r="C60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G60" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -26913,8 +29109,14 @@
       <c r="C61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G61" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -26924,8 +29126,14 @@
       <c r="C62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G62" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -26935,8 +29143,14 @@
       <c r="C63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G63" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -26946,8 +29160,14 @@
       <c r="C64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G64" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -26957,8 +29177,14 @@
       <c r="C65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G65" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -26968,8 +29194,14 @@
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G66" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -26979,8 +29211,14 @@
       <c r="C67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G67" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -26990,8 +29228,14 @@
       <c r="C68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G68" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -27001,8 +29245,14 @@
       <c r="C69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G69" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -27012,8 +29262,14 @@
       <c r="C70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G70" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -27023,8 +29279,14 @@
       <c r="C71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G71" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H71" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -27034,8 +29296,14 @@
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G72" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -27045,8 +29313,14 @@
       <c r="C73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G73" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -27056,8 +29330,14 @@
       <c r="C74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G74" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H74" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -27067,8 +29347,14 @@
       <c r="C75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G75" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -27078,8 +29364,14 @@
       <c r="C76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G76" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H76" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -27089,8 +29381,14 @@
       <c r="C77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G77" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -27100,8 +29398,14 @@
       <c r="C78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G78" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H78" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -27111,8 +29415,14 @@
       <c r="C79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G79" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H79" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
@@ -27122,8 +29432,14 @@
       <c r="C80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G80" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H80" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -27133,8 +29449,14 @@
       <c r="C81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G81" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -27144,8 +29466,14 @@
       <c r="C82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G82" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H82" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -27155,8 +29483,14 @@
       <c r="C83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G83" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -27166,8 +29500,14 @@
       <c r="C84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G84" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H84" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
@@ -27177,8 +29517,14 @@
       <c r="C85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G85" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H85" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -27188,8 +29534,14 @@
       <c r="C86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G86" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H86" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -27199,8 +29551,14 @@
       <c r="C87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G87" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H87" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -27210,8 +29568,14 @@
       <c r="C88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G88" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H88" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>14</v>
       </c>
@@ -27221,8 +29585,14 @@
       <c r="C89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G89" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H89" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
@@ -27232,8 +29602,14 @@
       <c r="C90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G90" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H90" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -27243,8 +29619,14 @@
       <c r="C91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G91" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H91" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
@@ -27254,8 +29636,14 @@
       <c r="C92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G92" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
@@ -27265,8 +29653,14 @@
       <c r="C93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G93" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>15</v>
       </c>
@@ -27276,8 +29670,14 @@
       <c r="C94">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G94" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H94" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>15</v>
       </c>
@@ -27287,8 +29687,14 @@
       <c r="C95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G95" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H95" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>15</v>
       </c>
@@ -27298,8 +29704,14 @@
       <c r="C96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G96" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H96" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
@@ -27309,8 +29721,14 @@
       <c r="C97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G97" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>15</v>
       </c>
@@ -27320,8 +29738,14 @@
       <c r="C98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G98" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H98" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
@@ -27331,8 +29755,14 @@
       <c r="C99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G99" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H99" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -27342,8 +29772,14 @@
       <c r="C100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G100" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H100" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
@@ -27353,8 +29789,14 @@
       <c r="C101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G101" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H101" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>16</v>
       </c>
@@ -27364,8 +29806,14 @@
       <c r="C102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G102" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H102" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -27375,8 +29823,14 @@
       <c r="C103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G103" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -27386,8 +29840,14 @@
       <c r="C104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G104" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H104" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
@@ -27397,8 +29857,14 @@
       <c r="C105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G105" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H105" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
@@ -27408,8 +29874,14 @@
       <c r="C106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G106" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H106" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -27419,8 +29891,14 @@
       <c r="C107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G107" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H107" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
@@ -27430,8 +29908,14 @@
       <c r="C108">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G108" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H108" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>17</v>
       </c>
@@ -27441,8 +29925,14 @@
       <c r="C109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G109" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H109" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>17</v>
       </c>
@@ -27452,8 +29942,14 @@
       <c r="C110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G110" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H110" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>17</v>
       </c>
@@ -27463,8 +29959,14 @@
       <c r="C111">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G111" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H111" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>18</v>
       </c>
@@ -27474,8 +29976,14 @@
       <c r="C112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G112" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H112" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>18</v>
       </c>
@@ -27485,8 +29993,14 @@
       <c r="C113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G113" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H113" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>18</v>
       </c>
@@ -27496,8 +30010,14 @@
       <c r="C114">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G114" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>18</v>
       </c>
@@ -27507,8 +30027,14 @@
       <c r="C115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G115" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H115" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>18</v>
       </c>
@@ -27518,8 +30044,14 @@
       <c r="C116">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G116" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H116" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>18</v>
       </c>
@@ -27529,8 +30061,14 @@
       <c r="C117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G117" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H117" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -27540,8 +30078,14 @@
       <c r="C118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G118" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H118" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>19</v>
       </c>
@@ -27551,8 +30095,14 @@
       <c r="C119">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G119" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H119" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>19</v>
       </c>
@@ -27562,8 +30112,14 @@
       <c r="C120">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G120" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H120" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>19</v>
       </c>
@@ -27573,8 +30129,14 @@
       <c r="C121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G121" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H121" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -27584,8 +30146,14 @@
       <c r="C122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G122" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H122" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>19</v>
       </c>
@@ -27595,8 +30163,14 @@
       <c r="C123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G123" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H123" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -27606,8 +30180,14 @@
       <c r="C124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G124" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H124" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>20</v>
       </c>
@@ -27617,8 +30197,14 @@
       <c r="C125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G125" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H125" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>20</v>
       </c>
@@ -27628,8 +30214,14 @@
       <c r="C126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G126" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>20</v>
       </c>
@@ -27639,8 +30231,14 @@
       <c r="C127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G127" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H127" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>20</v>
       </c>
@@ -27650,8 +30248,14 @@
       <c r="C128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G128" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H128" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>20</v>
       </c>
@@ -27661,8 +30265,14 @@
       <c r="C129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G129" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H129" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -27672,8 +30282,14 @@
       <c r="C130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G130" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H130" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -27683,8 +30299,14 @@
       <c r="C131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G131" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H131" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -27694,8 +30316,14 @@
       <c r="C132">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G132" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H132" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -27705,8 +30333,14 @@
       <c r="C133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G133" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H133" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -27716,8 +30350,14 @@
       <c r="C134">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G134" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H134" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
@@ -27727,8 +30367,14 @@
       <c r="C135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G135" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H135" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>22</v>
       </c>
@@ -27738,8 +30384,14 @@
       <c r="C136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G136" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H136" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>22</v>
       </c>
@@ -27749,8 +30401,14 @@
       <c r="C137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G137" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>22</v>
       </c>
@@ -27760,8 +30418,14 @@
       <c r="C138">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G138" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H138" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>22</v>
       </c>
@@ -27771,8 +30435,14 @@
       <c r="C139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G139" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H139" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>22</v>
       </c>
@@ -27782,8 +30452,14 @@
       <c r="C140">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G140" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H140" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>22</v>
       </c>
@@ -27793,8 +30469,14 @@
       <c r="C141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G141" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H141" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>23</v>
       </c>
@@ -27804,8 +30486,14 @@
       <c r="C142">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G142" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H142" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>23</v>
       </c>
@@ -27815,8 +30503,14 @@
       <c r="C143">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G143" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H143" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>23</v>
       </c>
@@ -27826,8 +30520,14 @@
       <c r="C144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G144" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H144" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>23</v>
       </c>
@@ -27837,8 +30537,14 @@
       <c r="C145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G145" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H145" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>23</v>
       </c>
@@ -27848,8 +30554,14 @@
       <c r="C146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G146" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H146" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>23</v>
       </c>
@@ -27859,8 +30571,14 @@
       <c r="C147">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G147" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H147" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>24</v>
       </c>
@@ -27870,8 +30588,14 @@
       <c r="C148">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G148" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H148" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>24</v>
       </c>
@@ -27881,8 +30605,14 @@
       <c r="C149">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G149" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H149" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>24</v>
       </c>
@@ -27892,8 +30622,14 @@
       <c r="C150">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G150" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H150" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>24</v>
       </c>
@@ -27903,8 +30639,14 @@
       <c r="C151">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G151" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H151" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>24</v>
       </c>
@@ -27914,8 +30656,14 @@
       <c r="C152">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G152" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H152" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>24</v>
       </c>
@@ -27925,8 +30673,14 @@
       <c r="C153">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G153" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H153" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
@@ -27936,8 +30690,14 @@
       <c r="C154">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G154" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H154" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>25</v>
       </c>
@@ -27947,8 +30707,14 @@
       <c r="C155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G155" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H155" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>25</v>
       </c>
@@ -27958,8 +30724,14 @@
       <c r="C156">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G156" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H156" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>25</v>
       </c>
@@ -27969,8 +30741,14 @@
       <c r="C157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G157" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H157" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>25</v>
       </c>
@@ -27980,8 +30758,14 @@
       <c r="C158">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G158" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H158" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>25</v>
       </c>
@@ -27991,8 +30775,14 @@
       <c r="C159">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G159" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>26</v>
       </c>
@@ -28002,8 +30792,14 @@
       <c r="C160">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G160" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H160" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>26</v>
       </c>
@@ -28013,8 +30809,14 @@
       <c r="C161">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G161" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H161" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>26</v>
       </c>
@@ -28024,8 +30826,14 @@
       <c r="C162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G162" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H162" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>26</v>
       </c>
@@ -28035,8 +30843,14 @@
       <c r="C163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G163" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H163" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>26</v>
       </c>
@@ -28046,8 +30860,14 @@
       <c r="C164">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G164" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H164" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>26</v>
       </c>
@@ -28057,8 +30877,14 @@
       <c r="C165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G165" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H165" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>27</v>
       </c>
@@ -28068,8 +30894,14 @@
       <c r="C166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G166" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H166" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>27</v>
       </c>
@@ -28079,8 +30911,14 @@
       <c r="C167">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G167" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H167" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>27</v>
       </c>
@@ -28090,8 +30928,14 @@
       <c r="C168">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G168" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H168" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>27</v>
       </c>
@@ -28101,8 +30945,14 @@
       <c r="C169">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G169" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H169" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>27</v>
       </c>
@@ -28112,8 +30962,14 @@
       <c r="C170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G170" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H170" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>27</v>
       </c>
@@ -28123,8 +30979,14 @@
       <c r="C171">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G171" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H171" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>28</v>
       </c>
@@ -28134,8 +30996,14 @@
       <c r="C172">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G172" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H172" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>28</v>
       </c>
@@ -28145,8 +31013,14 @@
       <c r="C173">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G173" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H173" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>28</v>
       </c>
@@ -28156,8 +31030,14 @@
       <c r="C174">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G174" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H174" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>28</v>
       </c>
@@ -28167,8 +31047,14 @@
       <c r="C175">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G175" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H175" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>28</v>
       </c>
@@ -28178,8 +31064,14 @@
       <c r="C176">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G176" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="H176" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>28</v>
       </c>
@@ -28189,8 +31081,14 @@
       <c r="C177">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G177" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H177" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
@@ -28200,8 +31098,14 @@
       <c r="C178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G178" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H178" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>29</v>
       </c>
@@ -28211,8 +31115,14 @@
       <c r="C179">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G179" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H179" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>29</v>
       </c>
@@ -28222,8 +31132,14 @@
       <c r="C180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G180" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H180" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>29</v>
       </c>
@@ -28233,8 +31149,14 @@
       <c r="C181">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G181" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>29</v>
       </c>
@@ -28244,8 +31166,14 @@
       <c r="C182">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G182" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="H182" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>29</v>
       </c>
@@ -28255,8 +31183,14 @@
       <c r="C183">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G183" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H183" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>30</v>
       </c>
@@ -28266,8 +31200,14 @@
       <c r="C184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G184" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H184" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>30</v>
       </c>
@@ -28277,8 +31217,14 @@
       <c r="C185">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G185" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H185" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>30</v>
       </c>
@@ -28288,8 +31234,14 @@
       <c r="C186">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G186" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H186" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>30</v>
       </c>
@@ -28299,8 +31251,14 @@
       <c r="C187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G187" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H187" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>30</v>
       </c>
@@ -28310,8 +31268,14 @@
       <c r="C188">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G188" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>30</v>
       </c>
@@ -28321,8 +31285,14 @@
       <c r="C189">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G189" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>31</v>
       </c>
@@ -28332,8 +31302,14 @@
       <c r="C190">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>31</v>
       </c>
@@ -28343,8 +31319,14 @@
       <c r="C191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G191" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H191" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>31</v>
       </c>
@@ -28354,8 +31336,14 @@
       <c r="C192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G192" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H192" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>31</v>
       </c>
@@ -28365,8 +31353,14 @@
       <c r="C193">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G193" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H193" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>31</v>
       </c>
@@ -28376,8 +31370,14 @@
       <c r="C194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G194" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H194" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>31</v>
       </c>
@@ -28387,8 +31387,14 @@
       <c r="C195">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G195" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H195" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>32</v>
       </c>
@@ -28398,8 +31404,14 @@
       <c r="C196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G196" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H196" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>32</v>
       </c>
@@ -28409,8 +31421,14 @@
       <c r="C197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G197" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H197" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>32</v>
       </c>
@@ -28420,8 +31438,14 @@
       <c r="C198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G198" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H198" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>32</v>
       </c>
@@ -28431,8 +31455,14 @@
       <c r="C199">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G199" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H199" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>32</v>
       </c>
@@ -28442,8 +31472,14 @@
       <c r="C200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G200" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H200" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>32</v>
       </c>
@@ -28453,8 +31489,14 @@
       <c r="C201">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G201" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H201" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>33</v>
       </c>
@@ -28464,8 +31506,14 @@
       <c r="C202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G202" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H202" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>33</v>
       </c>
@@ -28475,8 +31523,14 @@
       <c r="C203">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G203" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H203" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>33</v>
       </c>
@@ -28486,8 +31540,14 @@
       <c r="C204">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G204" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H204" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>33</v>
       </c>
@@ -28497,8 +31557,14 @@
       <c r="C205">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G205" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H205" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>33</v>
       </c>
@@ -28508,8 +31574,14 @@
       <c r="C206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G206" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H206" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>33</v>
       </c>
@@ -28519,8 +31591,14 @@
       <c r="C207">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G207" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H207" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>34</v>
       </c>
@@ -28530,8 +31608,14 @@
       <c r="C208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G208" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H208" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>34</v>
       </c>
@@ -28541,8 +31625,14 @@
       <c r="C209">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G209" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H209" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>34</v>
       </c>
@@ -28552,8 +31642,14 @@
       <c r="C210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G210" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H210" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>34</v>
       </c>
@@ -28563,8 +31659,14 @@
       <c r="C211">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G211" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H211" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>34</v>
       </c>
@@ -28574,8 +31676,14 @@
       <c r="C212">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G212" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H212" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>34</v>
       </c>
@@ -28585,8 +31693,14 @@
       <c r="C213">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G213" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H213" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>35</v>
       </c>
@@ -28596,8 +31710,14 @@
       <c r="C214">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G214" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H214" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>35</v>
       </c>
@@ -28607,8 +31727,14 @@
       <c r="C215">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G215" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H215" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>35</v>
       </c>
@@ -28618,8 +31744,14 @@
       <c r="C216">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G216" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H216" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>35</v>
       </c>
@@ -28629,8 +31761,14 @@
       <c r="C217">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G217" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H217" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>35</v>
       </c>
@@ -28640,8 +31778,14 @@
       <c r="C218">
         <v>5</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G218" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H218" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>35</v>
       </c>
@@ -28651,8 +31795,14 @@
       <c r="C219">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G219" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H219" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>36</v>
       </c>
@@ -28662,8 +31812,14 @@
       <c r="C220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G220" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H220" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>36</v>
       </c>
@@ -28673,8 +31829,14 @@
       <c r="C221">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G221" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H221" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>36</v>
       </c>
@@ -28684,8 +31846,14 @@
       <c r="C222">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G222" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H222" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>36</v>
       </c>
@@ -28695,8 +31863,14 @@
       <c r="C223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G223" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H223" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>36</v>
       </c>
@@ -28706,8 +31880,14 @@
       <c r="C224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G224" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H224" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>36</v>
       </c>
@@ -28717,8 +31897,14 @@
       <c r="C225">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G225" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H225" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>37</v>
       </c>
@@ -28728,8 +31914,14 @@
       <c r="C226">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G226" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H226" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>37</v>
       </c>
@@ -28739,8 +31931,14 @@
       <c r="C227">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G227" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H227" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>37</v>
       </c>
@@ -28750,8 +31948,14 @@
       <c r="C228">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G228" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H228" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>37</v>
       </c>
@@ -28761,8 +31965,14 @@
       <c r="C229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G229" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H229" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>37</v>
       </c>
@@ -28772,8 +31982,14 @@
       <c r="C230">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G230" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H230" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>37</v>
       </c>
@@ -28783,8 +31999,14 @@
       <c r="C231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G231" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>38</v>
       </c>
@@ -28794,8 +32016,14 @@
       <c r="C232">
         <v>5</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G232" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H232" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>38</v>
       </c>
@@ -28805,8 +32033,14 @@
       <c r="C233">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G233" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H233" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>38</v>
       </c>
@@ -28816,8 +32050,14 @@
       <c r="C234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G234" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H234" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>38</v>
       </c>
@@ -28827,8 +32067,14 @@
       <c r="C235">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G235" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H235" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>38</v>
       </c>
@@ -28838,8 +32084,14 @@
       <c r="C236">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G236" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H236" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>38</v>
       </c>
@@ -28849,8 +32101,14 @@
       <c r="C237">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G237" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H237" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>39</v>
       </c>
@@ -28860,8 +32118,14 @@
       <c r="C238">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G238" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H238" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>39</v>
       </c>
@@ -28871,8 +32135,14 @@
       <c r="C239">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G239" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H239" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>39</v>
       </c>
@@ -28882,8 +32152,14 @@
       <c r="C240">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G240" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H240" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>39</v>
       </c>
@@ -28893,8 +32169,14 @@
       <c r="C241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G241" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H241" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>39</v>
       </c>
@@ -28904,8 +32186,14 @@
       <c r="C242">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G242" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H242" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>39</v>
       </c>
@@ -28915,8 +32203,14 @@
       <c r="C243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G243" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H243" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>40</v>
       </c>
@@ -28926,8 +32220,14 @@
       <c r="C244">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G244" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H244" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>40</v>
       </c>
@@ -28937,8 +32237,14 @@
       <c r="C245">
         <v>5</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G245" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H245" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>40</v>
       </c>
@@ -28948,8 +32254,14 @@
       <c r="C246">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G246" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H246" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>40</v>
       </c>
@@ -28959,8 +32271,14 @@
       <c r="C247">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G247" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H247" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>40</v>
       </c>
@@ -28970,8 +32288,14 @@
       <c r="C248">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G248" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H248" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>40</v>
       </c>
@@ -28981,8 +32305,14 @@
       <c r="C249">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G249" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H249" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>41</v>
       </c>
@@ -28992,8 +32322,14 @@
       <c r="C250">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G250" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H250" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>41</v>
       </c>
@@ -29003,8 +32339,14 @@
       <c r="C251">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G251" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H251" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>41</v>
       </c>
@@ -29014,8 +32356,14 @@
       <c r="C252">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G252" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H252" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>41</v>
       </c>
@@ -29025,8 +32373,14 @@
       <c r="C253">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G253" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>41</v>
       </c>
@@ -29036,8 +32390,14 @@
       <c r="C254">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G254" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H254" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>41</v>
       </c>
@@ -29047,8 +32407,14 @@
       <c r="C255">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G255" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H255" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>42</v>
       </c>
@@ -29058,8 +32424,14 @@
       <c r="C256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G256" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H256" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>42</v>
       </c>
@@ -29069,8 +32441,14 @@
       <c r="C257">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G257" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H257" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>42</v>
       </c>
@@ -29080,8 +32458,14 @@
       <c r="C258">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G258" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H258" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>42</v>
       </c>
@@ -29091,8 +32475,14 @@
       <c r="C259">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G259" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H259" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>42</v>
       </c>
@@ -29102,8 +32492,14 @@
       <c r="C260">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G260" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H260" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>42</v>
       </c>
@@ -29113,8 +32509,14 @@
       <c r="C261">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G261" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H261" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>43</v>
       </c>
@@ -29124,8 +32526,14 @@
       <c r="C262">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G262" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H262" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>43</v>
       </c>
@@ -29135,8 +32543,14 @@
       <c r="C263">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G263" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H263" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>43</v>
       </c>
@@ -29146,8 +32560,14 @@
       <c r="C264">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G264" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="H264" s="14">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>43</v>
       </c>
@@ -29158,7 +32578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>43</v>
       </c>
@@ -29169,7 +32589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>43</v>
       </c>
@@ -29180,7 +32600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>44</v>
       </c>
@@ -29191,7 +32611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>44</v>
       </c>
@@ -29202,7 +32622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>44</v>
       </c>
@@ -29213,7 +32633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>44</v>
       </c>
@@ -29224,7 +32644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>44</v>
       </c>
@@ -42778,6 +46198,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:C1503" xr:uid="{D1A44A68-AB33-415C-972E-D8CC08856A76}"/>
+  <sortState ref="M14:M17">
+    <sortCondition ref="M14"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{43813851-26EF-4172-88F7-4A313548C881}"/>
   </hyperlinks>
